--- a/bench/matrix_mul.xlsx
+++ b/bench/matrix_mul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\JML\bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72722BF-6707-43FB-9411-BC1CE87EABBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794900A-9EC7-4AB5-BA35-78EBFBE6BEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="3060" windowWidth="17895" windowHeight="11385" xr2:uid="{899DAF6E-1FC4-493E-B94C-6B527BAD4F8E}"/>
+    <workbookView xWindow="1515" yWindow="3000" windowWidth="17895" windowHeight="11385" xr2:uid="{899DAF6E-1FC4-493E-B94C-6B527BAD4F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="1" r:id="rId1"/>
@@ -9532,7 +9532,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9795,13 +9795,6 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G8">
-        <v>15000</v>
-      </c>
-      <c r="H8">
-        <f>G8 / 2</f>
-        <v>7500</v>
       </c>
     </row>
   </sheetData>

--- a/bench/matrix_mul.xlsx
+++ b/bench/matrix_mul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\JML\bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794900A-9EC7-4AB5-BA35-78EBFBE6BEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF36AA-D1AE-4CBC-9271-33FCCD4B05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3000" windowWidth="17895" windowHeight="11385" xr2:uid="{899DAF6E-1FC4-493E-B94C-6B527BAD4F8E}"/>
+    <workbookView xWindow="1065" yWindow="1380" windowWidth="17895" windowHeight="11385" xr2:uid="{899DAF6E-1FC4-493E-B94C-6B527BAD4F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Managed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Epochs = 100</t>
   </si>
@@ -45,6 +39,21 @@
   </si>
   <si>
     <t>Lower is better</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Naive MT</t>
+  </si>
+  <si>
+    <t>Strassen</t>
+  </si>
+  <si>
+    <t>Strassen MT</t>
+  </si>
+  <si>
+    <t>Epochs = 1000</t>
   </si>
 </sst>
 </file>
@@ -198,7 +207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Normal</c:v>
+                  <c:v>Naive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -275,51 +284,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>7.3426</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.603899999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.187899999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.265299999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>115.93210000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>236.30751000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>316.93020000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>484.02519999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>674.60670000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>935.18280000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1316.8135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1870.9585</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2319.5046000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3034.6257000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3912.5590000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -339,7 +303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Managed</c:v>
+                  <c:v>Naive MT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -416,51 +380,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>106.73180000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134.21080000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.5641</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>154.99180000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>195.7568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>220.79640000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>285.423</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>328.4119</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>402.49182000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>539.63855000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>646.45709999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.23829999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>792.23929999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>955.79160000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1089.7022999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -468,6 +387,48 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0BB7-4800-9911-AA3EDEE25C19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Single!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strassen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Single!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB80-45DA-B13C-AAD3B1C111AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -746,7 +707,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Single!$A$4</c:f>
+              <c:f>Single!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,55 +784,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Single!$B$4:$P$4</c:f>
+              <c:f>Single!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>15.844099999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.150499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.356300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.382899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.652799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.375599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.381699999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.3202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.921099999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.467500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.095400000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.021100000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.4404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.244800000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.331</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -887,7 +803,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Single!$A$5</c:f>
+              <c:f>Single!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,55 +880,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Single!$B$5:$P$5</c:f>
+              <c:f>Single!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.6783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1482000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0455999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9226999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7559</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5984999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.4446000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.4702999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2746999999999993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.4590999999999994</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1307,7 +1178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Normal</c:v>
+                  <c:v>Naive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,7 +1319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Managed</c:v>
+                  <c:v>Naive MT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2480,51 +2351,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>7.3426</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.603899999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.187899999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.265299999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>115.93210000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>236.30751000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>316.93020000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>484.02519999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>674.60670000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>935.18280000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1316.8135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1870.9585</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2319.5046000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3034.6257000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3912.5590000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3016,51 +2842,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>106.73180000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134.21080000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.5641</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>154.99180000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>195.7568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>220.79640000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>285.423</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>328.4119</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>402.49182000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>539.63855000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>646.45709999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.23829999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>792.23929999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>955.79160000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1089.7022999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3548,55 +3329,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Single!$B$4:$P$4</c:f>
+              <c:f>Single!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>15.844099999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.150499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.356300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.382899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.652799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.375599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.381699999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.3202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.921099999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.467500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.095400000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.021100000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.4404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.244800000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.331</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4084,55 +3820,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Single!$B$5:$P$5</c:f>
+              <c:f>Single!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.6783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1482000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0455999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9226999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7559</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5984999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.4446000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.4702999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2746999999999993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.4590999999999994</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8925,13 +8616,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>101972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>178172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8961,13 +8652,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>79561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>155761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9529,10 +9220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAB2ACF-A02B-4C0E-AFF8-2B830B01FD42}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9589,212 +9280,43 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.3426</v>
-      </c>
-      <c r="C2">
-        <v>16.603899999999999</v>
-      </c>
-      <c r="D2">
-        <v>34.187899999999999</v>
-      </c>
-      <c r="E2">
-        <v>68.265299999999996</v>
-      </c>
-      <c r="F2">
-        <v>115.93210000000001</v>
-      </c>
-      <c r="G2">
-        <v>236.30751000000001</v>
-      </c>
-      <c r="H2">
-        <v>316.93020000000001</v>
-      </c>
-      <c r="I2">
-        <v>484.02519999999998</v>
-      </c>
-      <c r="J2">
-        <v>674.60670000000005</v>
-      </c>
-      <c r="K2">
-        <v>935.18280000000004</v>
-      </c>
-      <c r="L2">
-        <v>1316.8135</v>
-      </c>
-      <c r="M2">
-        <v>1870.9585</v>
-      </c>
-      <c r="N2">
-        <v>2319.5046000000002</v>
-      </c>
-      <c r="O2">
-        <v>3034.6257000000001</v>
-      </c>
-      <c r="P2">
-        <v>3912.5590000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>106.73180000000001</v>
-      </c>
-      <c r="C3">
-        <v>134.21080000000001</v>
-      </c>
-      <c r="D3">
-        <v>142.5641</v>
-      </c>
-      <c r="E3">
-        <v>154.99180000000001</v>
-      </c>
-      <c r="F3">
-        <v>195.7568</v>
-      </c>
-      <c r="G3">
-        <v>220.79640000000001</v>
-      </c>
-      <c r="H3">
-        <v>285.423</v>
-      </c>
-      <c r="I3">
-        <v>328.4119</v>
-      </c>
-      <c r="J3">
-        <v>402.49182000000002</v>
-      </c>
-      <c r="K3">
-        <v>539.63855000000001</v>
-      </c>
-      <c r="L3">
-        <v>646.45709999999997</v>
-      </c>
-      <c r="M3">
-        <v>687.23829999999998</v>
-      </c>
-      <c r="N3">
-        <v>792.23929999999996</v>
-      </c>
-      <c r="O3">
-        <v>955.79160000000002</v>
-      </c>
-      <c r="P3">
-        <v>1089.7022999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15.844099999999999</v>
-      </c>
-      <c r="C4">
-        <v>15.150499999999999</v>
-      </c>
-      <c r="D4">
-        <v>16.356300000000001</v>
-      </c>
-      <c r="E4">
-        <v>16.382899999999999</v>
-      </c>
-      <c r="F4">
-        <v>16.652799999999999</v>
-      </c>
-      <c r="G4">
-        <v>17.375599999999999</v>
-      </c>
-      <c r="H4">
-        <v>18.381699999999999</v>
-      </c>
-      <c r="I4">
-        <v>18.3202</v>
-      </c>
-      <c r="J4">
-        <v>19.921099999999999</v>
-      </c>
-      <c r="K4">
-        <v>20.467500000000001</v>
-      </c>
-      <c r="L4">
-        <v>24.095400000000001</v>
-      </c>
-      <c r="M4">
-        <v>25.021100000000001</v>
-      </c>
-      <c r="N4">
-        <v>25.4404</v>
-      </c>
-      <c r="O4">
-        <v>27.244800000000001</v>
-      </c>
-      <c r="P4">
-        <v>28.331</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.6783999999999999</v>
-      </c>
-      <c r="C5">
-        <v>2.1482000000000001</v>
-      </c>
-      <c r="D5">
-        <v>2.0455999999999999</v>
-      </c>
-      <c r="E5">
-        <v>1.9015</v>
-      </c>
-      <c r="F5">
-        <v>2.5385</v>
-      </c>
-      <c r="G5">
-        <v>2.9226999999999999</v>
-      </c>
-      <c r="H5">
-        <v>3.7559</v>
-      </c>
-      <c r="I5">
-        <v>4.0804</v>
-      </c>
-      <c r="J5">
-        <v>5.5984999999999996</v>
-      </c>
-      <c r="K5">
-        <v>5.2450000000000001</v>
-      </c>
-      <c r="L5">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="M5">
-        <v>6.4446000000000003</v>
-      </c>
-      <c r="N5">
-        <v>7.4702999999999999</v>
-      </c>
-      <c r="O5">
-        <v>8.2746999999999993</v>
-      </c>
-      <c r="P5">
-        <v>9.4590999999999994</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9809,7 +9331,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9866,7 +9388,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>11.2948</v>
@@ -9916,7 +9438,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>108.458496</v>
@@ -9966,7 +9488,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>14.516999999999999</v>
@@ -10016,7 +9538,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1.4214</v>
@@ -10066,12 +9588,12 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10086,7 +9608,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10143,267 +9665,267 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <f>Double!B2 - Single!B2</f>
-        <v>3.9522000000000004</v>
+        <v>11.2948</v>
       </c>
       <c r="C2">
         <f>Double!C2 - Single!C2</f>
-        <v>3.4559999999999995</v>
+        <v>20.059899999999999</v>
       </c>
       <c r="D2">
         <f>Double!D2 - Single!D2</f>
-        <v>6.8241000000000014</v>
+        <v>41.012</v>
       </c>
       <c r="E2">
         <f>Double!E2 - Single!E2</f>
-        <v>0.72840000000000771</v>
+        <v>68.993700000000004</v>
       </c>
       <c r="F2">
         <f>Double!F2 - Single!F2</f>
-        <v>18.180199999999999</v>
+        <v>134.1123</v>
       </c>
       <c r="G2">
         <f>Double!G2 - Single!G2</f>
-        <v>-22.850220000000007</v>
+        <v>213.45729</v>
       </c>
       <c r="H2">
         <f>Double!H2 - Single!H2</f>
-        <v>-5.3627299999999991</v>
+        <v>311.56747000000001</v>
       </c>
       <c r="I2">
         <f>Double!I2 - Single!I2</f>
-        <v>7.6066000000000145</v>
+        <v>491.6318</v>
       </c>
       <c r="J2">
         <f>Double!J2 - Single!J2</f>
-        <v>60.25649999999996</v>
+        <v>734.86320000000001</v>
       </c>
       <c r="K2">
         <f>Double!K2 - Single!K2</f>
-        <v>147.34500000000003</v>
+        <v>1082.5278000000001</v>
       </c>
       <c r="L2">
         <f>Double!L2 - Single!L2</f>
-        <v>289.93139999999994</v>
+        <v>1606.7448999999999</v>
       </c>
       <c r="M2">
         <f>Double!M2 - Single!M2</f>
-        <v>167.25729999999999</v>
+        <v>2038.2157999999999</v>
       </c>
       <c r="N2">
         <f>Double!N2 - Single!N2</f>
-        <v>301.31959999999981</v>
+        <v>2620.8242</v>
       </c>
       <c r="O2">
         <f>Double!O2 - Single!O2</f>
-        <v>255.51330000000007</v>
+        <v>3290.1390000000001</v>
       </c>
       <c r="P2">
         <f>Double!P2 - Single!P2</f>
-        <v>134.57870000000003</v>
+        <v>4047.1377000000002</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <f>Double!B3 - Single!B3</f>
-        <v>1.7266959999999898</v>
+        <v>108.458496</v>
       </c>
       <c r="C3">
         <f>Double!C3 - Single!C3</f>
-        <v>-4.1005000000000109</v>
+        <v>130.1103</v>
       </c>
       <c r="D3">
         <f>Double!D3 - Single!D3</f>
-        <v>3.5584900000000061</v>
+        <v>146.12259</v>
       </c>
       <c r="E3">
         <f>Double!E3 - Single!E3</f>
-        <v>16.710099999999983</v>
+        <v>171.70189999999999</v>
       </c>
       <c r="F3">
         <f>Double!F3 - Single!F3</f>
-        <v>-3.454890000000006</v>
+        <v>192.30190999999999</v>
       </c>
       <c r="G3">
         <f>Double!G3 - Single!G3</f>
-        <v>15.821110000000004</v>
+        <v>236.61751000000001</v>
       </c>
       <c r="H3">
         <f>Double!H3 - Single!H3</f>
-        <v>-13.942200000000014</v>
+        <v>271.48079999999999</v>
       </c>
       <c r="I3">
         <f>Double!I3 - Single!I3</f>
-        <v>2.109800000000007</v>
+        <v>330.52170000000001</v>
       </c>
       <c r="J3">
         <f>Double!J3 - Single!J3</f>
-        <v>-3.1705900000000042</v>
+        <v>399.32123000000001</v>
       </c>
       <c r="K3">
         <f>Double!K3 - Single!K3</f>
-        <v>-75.970120000000009</v>
+        <v>463.66843</v>
       </c>
       <c r="L3">
         <f>Double!L3 - Single!L3</f>
-        <v>-53.147299999999973</v>
+        <v>593.3098</v>
       </c>
       <c r="M3">
         <f>Double!M3 - Single!M3</f>
-        <v>-3.4807299999999941</v>
+        <v>683.75756999999999</v>
       </c>
       <c r="N3">
         <f>Double!N3 - Single!N3</f>
-        <v>40.630500000000097</v>
+        <v>832.86980000000005</v>
       </c>
       <c r="O3">
         <f>Double!O3 - Single!O3</f>
-        <v>94.899400000000014</v>
+        <v>1050.691</v>
       </c>
       <c r="P3">
         <f>Double!P3 - Single!P3</f>
-        <v>97.828800000000001</v>
+        <v>1187.5310999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <f>Double!B4 - Single!B4</f>
-        <v>-1.3270999999999997</v>
+        <f>Double!B4 - Single!B6</f>
+        <v>14.516999999999999</v>
       </c>
       <c r="C4">
-        <f>Double!C4 - Single!C4</f>
-        <v>-0.25569999999999915</v>
+        <f>Double!C4 - Single!C6</f>
+        <v>14.8948</v>
       </c>
       <c r="D4">
-        <f>Double!D4 - Single!D4</f>
-        <v>-0.23150000000000048</v>
+        <f>Double!D4 - Single!D6</f>
+        <v>16.1248</v>
       </c>
       <c r="E4">
-        <f>Double!E4 - Single!E4</f>
-        <v>-3.5301000000000471E-2</v>
+        <f>Double!E4 - Single!E6</f>
+        <v>16.347598999999999</v>
       </c>
       <c r="F4">
-        <f>Double!F4 - Single!F4</f>
-        <v>0.93580000000000041</v>
+        <f>Double!F4 - Single!F6</f>
+        <v>17.5886</v>
       </c>
       <c r="G4">
-        <f>Double!G4 - Single!G4</f>
-        <v>1.6415000000000006</v>
+        <f>Double!G4 - Single!G6</f>
+        <v>19.017099999999999</v>
       </c>
       <c r="H4">
-        <f>Double!H4 - Single!H4</f>
-        <v>2.7876000000000012</v>
+        <f>Double!H4 - Single!H6</f>
+        <v>21.1693</v>
       </c>
       <c r="I4">
-        <f>Double!I4 - Single!I4</f>
-        <v>4.9478000000000009</v>
+        <f>Double!I4 - Single!I6</f>
+        <v>23.268000000000001</v>
       </c>
       <c r="J4">
-        <f>Double!J4 - Single!J4</f>
-        <v>8.9242000000000026</v>
+        <f>Double!J4 - Single!J6</f>
+        <v>28.845300000000002</v>
       </c>
       <c r="K4">
-        <f>Double!K4 - Single!K4</f>
-        <v>10.903499999999998</v>
+        <f>Double!K4 - Single!K6</f>
+        <v>31.370999999999999</v>
       </c>
       <c r="L4">
-        <f>Double!L4 - Single!L4</f>
-        <v>13.374799999999997</v>
+        <f>Double!L4 - Single!L6</f>
+        <v>37.470199999999998</v>
       </c>
       <c r="M4">
-        <f>Double!M4 - Single!M4</f>
-        <v>18.7578</v>
+        <f>Double!M4 - Single!M6</f>
+        <v>43.7789</v>
       </c>
       <c r="N4">
-        <f>Double!N4 - Single!N4</f>
-        <v>28.612300000000001</v>
+        <f>Double!N4 - Single!N6</f>
+        <v>54.052700000000002</v>
       </c>
       <c r="O4">
-        <f>Double!O4 - Single!O4</f>
-        <v>31.059000000000001</v>
+        <f>Double!O4 - Single!O6</f>
+        <v>58.303800000000003</v>
       </c>
       <c r="P4">
-        <f>Double!P4 - Single!P4</f>
-        <v>42.239305000000002</v>
+        <f>Double!P4 - Single!P6</f>
+        <v>70.570305000000005</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <f>Double!B5 - Single!B5</f>
-        <v>-0.2569999999999999</v>
+        <f>Double!B5 - Single!B7</f>
+        <v>1.4214</v>
       </c>
       <c r="C5">
-        <f>Double!C5 - Single!C5</f>
-        <v>-0.97510000000000008</v>
+        <f>Double!C5 - Single!C7</f>
+        <v>1.1731</v>
       </c>
       <c r="D5">
-        <f>Double!D5 - Single!D5</f>
-        <v>-0.12839999999999985</v>
+        <f>Double!D5 - Single!D7</f>
+        <v>1.9172</v>
       </c>
       <c r="E5">
-        <f>Double!E5 - Single!E5</f>
-        <v>4.2899999999999938E-2</v>
+        <f>Double!E5 - Single!E7</f>
+        <v>1.9443999999999999</v>
       </c>
       <c r="F5">
-        <f>Double!F5 - Single!F5</f>
-        <v>0.33349999999999991</v>
+        <f>Double!F5 - Single!F7</f>
+        <v>2.8719999999999999</v>
       </c>
       <c r="G5">
-        <f>Double!G5 - Single!G5</f>
-        <v>4.8799999999999955E-2</v>
+        <f>Double!G5 - Single!G7</f>
+        <v>2.9714999999999998</v>
       </c>
       <c r="H5">
-        <f>Double!H5 - Single!H5</f>
-        <v>2.2982</v>
+        <f>Double!H5 - Single!H7</f>
+        <v>6.0541</v>
       </c>
       <c r="I5">
-        <f>Double!I5 - Single!I5</f>
-        <v>2.5260999999999996</v>
+        <f>Double!I5 - Single!I7</f>
+        <v>6.6064999999999996</v>
       </c>
       <c r="J5">
-        <f>Double!J5 - Single!J5</f>
-        <v>2.0937000000000001</v>
+        <f>Double!J5 - Single!J7</f>
+        <v>7.6921999999999997</v>
       </c>
       <c r="K5">
-        <f>Double!K5 - Single!K5</f>
-        <v>2.9654999999999996</v>
+        <f>Double!K5 - Single!K7</f>
+        <v>8.2104999999999997</v>
       </c>
       <c r="L5">
-        <f>Double!L5 - Single!L5</f>
-        <v>5.1402999999999999</v>
+        <f>Double!L5 - Single!L7</f>
+        <v>11.1913</v>
       </c>
       <c r="M5">
-        <f>Double!M5 - Single!M5</f>
-        <v>5.7644999999999991</v>
+        <f>Double!M5 - Single!M7</f>
+        <v>12.209099999999999</v>
       </c>
       <c r="N5">
-        <f>Double!N5 - Single!N5</f>
-        <v>6.6574000000000009</v>
+        <f>Double!N5 - Single!N7</f>
+        <v>14.127700000000001</v>
       </c>
       <c r="O5">
-        <f>Double!O5 - Single!O5</f>
-        <v>5.3994</v>
+        <f>Double!O5 - Single!O7</f>
+        <v>13.674099999999999</v>
       </c>
       <c r="P5">
-        <f>Double!P5 - Single!P5</f>
-        <v>10.184200000000001</v>
+        <f>Double!P5 - Single!P7</f>
+        <v>19.6433</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
